--- a/data/georgia_census/imereti/chiatura/age_dependency.xlsx
+++ b/data/georgia_census/imereti/chiatura/age_dependency.xlsx
@@ -1007,13 +1007,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DE331FC-8F30-4666-A94A-852BB25C0ED7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC5271C5-FFC9-41A9-A924-66AD06CCA170}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5E1E3C-4D88-4708-A0FA-688D7E070953}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFCAD02D-4E96-4C4B-BE12-4066201B1ECA}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9487AB90-3A20-42D2-AA70-93AB20693198}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{227618CE-65E8-4E07-9C9B-FB5E25EAFAC9}"/>
 </file>